--- a/data/trans_orig/P0902-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>34428</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23662</v>
+        <v>23984</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47265</v>
+        <v>47387</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07266645079672329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0499435804461742</v>
+        <v>0.05062330464432061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09976268825545562</v>
+        <v>0.1000205845060815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -765,19 +765,19 @@
         <v>35679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25049</v>
+        <v>25002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47591</v>
+        <v>48149</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1163406236022574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08167691683943316</v>
+        <v>0.08152501570023898</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.155181447907625</v>
+        <v>0.1569999398494743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -786,19 +786,19 @@
         <v>70107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53956</v>
+        <v>55294</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85838</v>
+        <v>88294</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08982821007038609</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06913335399744018</v>
+        <v>0.07084784740065436</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.10998446831125</v>
+        <v>0.1131315578560109</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>439348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426511</v>
+        <v>426389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>450114</v>
+        <v>449792</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9273335492032767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9002373117445442</v>
+        <v>0.8999794154939186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9500564195538257</v>
+        <v>0.9493766953556794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>264</v>
@@ -836,19 +836,19 @@
         <v>271001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259089</v>
+        <v>258531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281631</v>
+        <v>281678</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8836593763977426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8448185520923749</v>
+        <v>0.8430000601505256</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9183230831605669</v>
+        <v>0.9184749842997609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>686</v>
@@ -857,19 +857,19 @@
         <v>710350</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>694619</v>
+        <v>692163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>726501</v>
+        <v>725163</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9101717899296139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.89001553168875</v>
+        <v>0.8868684421439886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9308666460025604</v>
+        <v>0.9291521525993451</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>18458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10904</v>
+        <v>11078</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29216</v>
+        <v>29424</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0503043260550378</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02971720861008512</v>
+        <v>0.03019081677609104</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07962275682063687</v>
+        <v>0.0801875398744836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -982,19 +982,19 @@
         <v>33843</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24373</v>
+        <v>23627</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46745</v>
+        <v>45787</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09100999123760564</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06554128122970815</v>
+        <v>0.06353657874446451</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1257039340669927</v>
+        <v>0.1231291124669121</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -1003,19 +1003,19 @@
         <v>52302</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39093</v>
+        <v>39199</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67174</v>
+        <v>66371</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07079299293045149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05291438962453858</v>
+        <v>0.0530571054241674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09092279181723074</v>
+        <v>0.08983682229157218</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>348476</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>337718</v>
+        <v>337510</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>356030</v>
+        <v>355856</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9496956739449622</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9203772431793632</v>
+        <v>0.919812460125516</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9702827913899149</v>
+        <v>0.9698091832239087</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>330</v>
@@ -1053,19 +1053,19 @@
         <v>338022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325120</v>
+        <v>326078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>347492</v>
+        <v>348238</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9089900087623943</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8742960659330073</v>
+        <v>0.8768708875330878</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9344587187702917</v>
+        <v>0.9364634212555354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>663</v>
@@ -1074,19 +1074,19 @@
         <v>686497</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>671625</v>
+        <v>672428</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>699706</v>
+        <v>699600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9292070070695485</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9090772081827693</v>
+        <v>0.9101631777084278</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9470856103754615</v>
+        <v>0.9469428945758327</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>41098</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30188</v>
+        <v>30639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54092</v>
+        <v>53963</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07577131295160089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05565687180576587</v>
+        <v>0.05648947133023544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09972967704186153</v>
+        <v>0.09949094083153119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1199,19 +1199,19 @@
         <v>31628</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22054</v>
+        <v>22676</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42086</v>
+        <v>42362</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1885073601042341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1314428643673528</v>
+        <v>0.1351522612008072</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2508344395133901</v>
+        <v>0.2524833871479319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1220,19 +1220,19 @@
         <v>72726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58414</v>
+        <v>57540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88782</v>
+        <v>88852</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.102405840405048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08225273833293831</v>
+        <v>0.08102241889167043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1250144105343802</v>
+        <v>0.1251140087569362</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>501291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>488297</v>
+        <v>488426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512201</v>
+        <v>511750</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9242286870483991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9002703229581384</v>
+        <v>0.9005090591684692</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9443431281942339</v>
+        <v>0.9435105286697646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -1270,19 +1270,19 @@
         <v>136154</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125696</v>
+        <v>125420</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145728</v>
+        <v>145106</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8114926398957659</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.74916556048661</v>
+        <v>0.7475166128520681</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8685571356326472</v>
+        <v>0.8648477387991927</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -1291,19 +1291,19 @@
         <v>637445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>621389</v>
+        <v>621319</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651757</v>
+        <v>652631</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.897594159594952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8749855894656194</v>
+        <v>0.8748859912430647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9177472616670617</v>
+        <v>0.9189775811083306</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>126602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106378</v>
+        <v>106367</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>151682</v>
+        <v>148508</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1022355998250438</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08590414064816919</v>
+        <v>0.08589561503245165</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1224886296615861</v>
+        <v>0.1199252718220718</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -1416,19 +1416,19 @@
         <v>87846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71325</v>
+        <v>72039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106849</v>
+        <v>107625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1229846030346229</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09985552842760467</v>
+        <v>0.1008543253070198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1495888219545869</v>
+        <v>0.1506758256151418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>216</v>
@@ -1437,19 +1437,19 @@
         <v>214448</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189138</v>
+        <v>187936</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>244799</v>
+        <v>242731</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1098257661929095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09686352541121203</v>
+        <v>0.09624808261421226</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1253694796149877</v>
+        <v>0.1243104664751591</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1111732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1086652</v>
+        <v>1089826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1131956</v>
+        <v>1131967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8977644001749562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8775113703384136</v>
+        <v>0.8800747281779281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9140958593518308</v>
+        <v>0.9141043849675483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>607</v>
@@ -1487,19 +1487,19 @@
         <v>626439</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>607436</v>
+        <v>606660</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>642960</v>
+        <v>642246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8770153969653771</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8504111780454132</v>
+        <v>0.8493241743848582</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9001444715723953</v>
+        <v>0.89914567469298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1702</v>
@@ -1508,19 +1508,19 @@
         <v>1738172</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1707821</v>
+        <v>1709889</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1763482</v>
+        <v>1764684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8901742338070905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8746305203850124</v>
+        <v>0.875689533524841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9031364745887881</v>
+        <v>0.9037519173857878</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>36395</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25755</v>
+        <v>26244</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47715</v>
+        <v>49787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1038211458623043</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07346929242874513</v>
+        <v>0.07486274157929446</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1361119207981567</v>
+        <v>0.1420237257958095</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -1633,19 +1633,19 @@
         <v>83579</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66147</v>
+        <v>68554</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101879</v>
+        <v>103269</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1469508638029407</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1163016214274998</v>
+        <v>0.1205335879590415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1791272451173292</v>
+        <v>0.1815719786750586</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -1654,19 +1654,19 @@
         <v>119974</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100758</v>
+        <v>100286</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141467</v>
+        <v>140564</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1305044013200225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.109601962181801</v>
+        <v>0.1090891503141695</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1538842770656883</v>
+        <v>0.1529024825089612</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>314160</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>302840</v>
+        <v>300768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>324800</v>
+        <v>324311</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8961788541376957</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8638880792018435</v>
+        <v>0.8579762742041905</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.926530707571255</v>
+        <v>0.9251372584207057</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>460</v>
@@ -1704,19 +1704,19 @@
         <v>485173</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>466873</v>
+        <v>465483</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>502605</v>
+        <v>500198</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8530491361970592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8208727548826709</v>
+        <v>0.8184280213249413</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8836983785725002</v>
+        <v>0.8794664120409585</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>762</v>
@@ -1725,19 +1725,19 @@
         <v>799333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>777840</v>
+        <v>778743</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>818549</v>
+        <v>819021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8694955986799775</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8461157229343117</v>
+        <v>0.8470975174910389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8903980378181992</v>
+        <v>0.8909108496858311</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>9559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4832</v>
+        <v>5103</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16801</v>
+        <v>16421</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03205445819015788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0162032755404951</v>
+        <v>0.01711414949815069</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05634046470697292</v>
+        <v>0.05506537818832133</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>209</v>
@@ -1850,19 +1850,19 @@
         <v>220019</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>193736</v>
+        <v>195753</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>245546</v>
+        <v>250463</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1761896609468883</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1551428022949904</v>
+        <v>0.1567582201809391</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1966316876683611</v>
+        <v>0.2005693467942997</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>219</v>
@@ -1871,19 +1871,19 @@
         <v>229577</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>203492</v>
+        <v>202924</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>262090</v>
+        <v>257955</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1484053704021459</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1315434333981629</v>
+        <v>0.1311757155843777</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1694223317300478</v>
+        <v>0.166749368228468</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>288642</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281400</v>
+        <v>281780</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293369</v>
+        <v>293098</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9679455418098422</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9436595352930272</v>
+        <v>0.9449346218116786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9837967244595049</v>
+        <v>0.9828858505018493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1029</v>
@@ -1921,19 +1921,19 @@
         <v>1028741</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1003214</v>
+        <v>998297</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1055024</v>
+        <v>1053007</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8238103390531117</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.803368312331639</v>
+        <v>0.7994306532057003</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8448571977050096</v>
+        <v>0.8432417798190608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1325</v>
@@ -1942,19 +1942,19 @@
         <v>1317383</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1284870</v>
+        <v>1289005</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1343468</v>
+        <v>1344036</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8515946295978541</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8305776682699522</v>
+        <v>0.8332506317715325</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8684565666018372</v>
+        <v>0.8688242844156223</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>266539</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>237137</v>
+        <v>238250</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>299909</v>
+        <v>299575</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0815057030865376</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07251467335052787</v>
+        <v>0.07285513667097869</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09170982663751594</v>
+        <v>0.09160794054605306</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>473</v>
@@ -2067,19 +2067,19 @@
         <v>492594</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>451685</v>
+        <v>454315</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>532579</v>
+        <v>535344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1458188486181551</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1337089532522338</v>
+        <v>0.1344874368009364</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1576551804508424</v>
+        <v>0.1584737269355714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>743</v>
@@ -2088,19 +2088,19 @@
         <v>759133</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>711485</v>
+        <v>710513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>808968</v>
+        <v>811680</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1141843312513598</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1070173475447268</v>
+        <v>0.1068711680087636</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1216802247251748</v>
+        <v>0.122088089768008</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3003651</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2970281</v>
+        <v>2970615</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3033053</v>
+        <v>3031940</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9184942969134624</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9082901733624841</v>
+        <v>0.9083920594539452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9274853266494721</v>
+        <v>0.927144863329021</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2823</v>
@@ -2138,19 +2138,19 @@
         <v>2885530</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2845545</v>
+        <v>2842780</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2926439</v>
+        <v>2923809</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8541811513818449</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8423448195491577</v>
+        <v>0.8415262730644285</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8662910467477664</v>
+        <v>0.8655125631990633</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5760</v>
@@ -2159,19 +2159,19 @@
         <v>5889181</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5839346</v>
+        <v>5836634</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5936829</v>
+        <v>5937801</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8858156687486402</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8783197752748251</v>
+        <v>0.8779119102319913</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8929826524552731</v>
+        <v>0.8931288319912363</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>25522</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16571</v>
+        <v>16912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37672</v>
+        <v>38431</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05837366425322315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03790050483983978</v>
+        <v>0.03868176654365161</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08616367367282264</v>
+        <v>0.08790093826959924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2526,19 +2526,19 @@
         <v>37184</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26530</v>
+        <v>27431</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50675</v>
+        <v>52399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1182509598081141</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0843682956721744</v>
+        <v>0.08723335897934954</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1611517877669579</v>
+        <v>0.1666360417627412</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -2547,19 +2547,19 @@
         <v>62706</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48971</v>
+        <v>49177</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80332</v>
+        <v>80615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08342294747896914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06514977328758662</v>
+        <v>0.06542421373801463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1068720031149693</v>
+        <v>0.1072489989079835</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>411689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>399539</v>
+        <v>398780</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420640</v>
+        <v>420299</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9416263357467769</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.913836326327178</v>
+        <v>0.9120990617304008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9620994951601604</v>
+        <v>0.9613182334563486</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -2597,19 +2597,19 @@
         <v>277270</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263779</v>
+        <v>262055</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>287924</v>
+        <v>287023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8817490401918858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.838848212233042</v>
+        <v>0.8333639582372585</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9156317043278251</v>
+        <v>0.9127666410206504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>630</v>
@@ -2618,19 +2618,19 @@
         <v>688959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>671333</v>
+        <v>671050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>702694</v>
+        <v>702488</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9165770525210308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8931279968850308</v>
+        <v>0.8927510010920165</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9348502267124135</v>
+        <v>0.9345757862619855</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>43153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32154</v>
+        <v>30720</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60083</v>
+        <v>58221</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.103040290657771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07677768823177572</v>
+        <v>0.07335213422700677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1434662653294237</v>
+        <v>0.1390204422346279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -2743,19 +2743,19 @@
         <v>36647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25953</v>
+        <v>25382</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49804</v>
+        <v>51016</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.10841954370188</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07678265046518939</v>
+        <v>0.07509113089754678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1473436197906613</v>
+        <v>0.1509294673517911</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -2764,19 +2764,19 @@
         <v>79800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64738</v>
+        <v>63982</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100125</v>
+        <v>99767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1054428116346845</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08554064297427304</v>
+        <v>0.08454187193232535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.132298505455868</v>
+        <v>0.1318265480759191</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>375644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>358714</v>
+        <v>360576</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>386643</v>
+        <v>388077</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8969597093422289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8565337346705754</v>
+        <v>0.8609795577653723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.923222311768224</v>
+        <v>0.9266478657729933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>272</v>
@@ -2814,19 +2814,19 @@
         <v>301364</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>288207</v>
+        <v>286995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>312058</v>
+        <v>312629</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.89158045629812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8526563802093388</v>
+        <v>0.849070532648209</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9232173495348105</v>
+        <v>0.9249088691024532</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>608</v>
@@ -2835,19 +2835,19 @@
         <v>677008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>656683</v>
+        <v>657041</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>692070</v>
+        <v>692826</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8945571883653155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8677014945441318</v>
+        <v>0.8681734519240808</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9144593570257269</v>
+        <v>0.9154581280676747</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>85271</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68122</v>
+        <v>67474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107840</v>
+        <v>106727</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1356748232418051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1083891206323697</v>
+        <v>0.1073582497062029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1715847922848226</v>
+        <v>0.1698138779173488</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -2960,19 +2960,19 @@
         <v>50777</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37846</v>
+        <v>38860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63771</v>
+        <v>63682</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1966442294371496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1465659346703385</v>
+        <v>0.1504944601476946</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2469676201136204</v>
+        <v>0.246621652376955</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -2981,19 +2981,19 @@
         <v>136048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111627</v>
+        <v>114139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157753</v>
+        <v>158796</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1534295728730908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1258893553990071</v>
+        <v>0.1287213508723598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1779079258018423</v>
+        <v>0.1790848249199998</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>543223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520654</v>
+        <v>521767</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>560372</v>
+        <v>561020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8643251767581949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8284152077151773</v>
+        <v>0.8301861220826512</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8916108793676299</v>
+        <v>0.8926417502937971</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>196</v>
@@ -3031,19 +3031,19 @@
         <v>207440</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>194446</v>
+        <v>194535</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220371</v>
+        <v>219357</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8033557705628505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7530323798863796</v>
+        <v>0.753378347623045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8534340653296615</v>
+        <v>0.8495055398523054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>712</v>
@@ -3052,19 +3052,19 @@
         <v>750663</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>728958</v>
+        <v>727915</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>775084</v>
+        <v>772572</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8465704271269091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8220920741981576</v>
+        <v>0.8209151750800001</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8741106446009929</v>
+        <v>0.87127864912764</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>149763</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>126056</v>
+        <v>128457</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>174103</v>
+        <v>175598</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1292164110702055</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1087615945750383</v>
+        <v>0.1108338558512144</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1502171604602405</v>
+        <v>0.1515071651577944</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -3177,19 +3177,19 @@
         <v>116253</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97298</v>
+        <v>96765</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>139358</v>
+        <v>139777</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1516357489168292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1269122515312998</v>
+        <v>0.1262171018854441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1817738482490953</v>
+        <v>0.182319740234281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>245</v>
@@ -3198,19 +3198,19 @@
         <v>266016</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>237730</v>
+        <v>236107</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>299030</v>
+        <v>297908</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1381421261404405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1234533456968931</v>
+        <v>0.1226106662225546</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1552862610755885</v>
+        <v>0.1547038613174152</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1009246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>984906</v>
+        <v>983411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1032953</v>
+        <v>1030552</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8707835889297945</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8497828395397593</v>
+        <v>0.8484928348422055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8912384054249617</v>
+        <v>0.8891661441487855</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>604</v>
@@ -3248,19 +3248,19 @@
         <v>650404</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>627299</v>
+        <v>626880</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>669359</v>
+        <v>669892</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8483642510831708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8182261517509047</v>
+        <v>0.8176802597657193</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8730877484687002</v>
+        <v>0.8737828981145559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1549</v>
@@ -3269,19 +3269,19 @@
         <v>1659651</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1626637</v>
+        <v>1627759</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1687937</v>
+        <v>1689560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8618578738595596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8447137389244117</v>
+        <v>0.8452961386825848</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.876546654303107</v>
+        <v>0.8773893337774454</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>62934</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48343</v>
+        <v>49564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78073</v>
+        <v>78269</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1232554825526643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.094679954585699</v>
+        <v>0.09707032720065928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.152905421173888</v>
+        <v>0.1532902287660095</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>196</v>
@@ -3394,19 +3394,19 @@
         <v>209727</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186861</v>
+        <v>186370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>236912</v>
+        <v>236020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2754046728229133</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2453785578738122</v>
+        <v>0.2447332269913829</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3111038772262283</v>
+        <v>0.309931591315713</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>256</v>
@@ -3415,19 +3415,19 @@
         <v>272660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>244441</v>
+        <v>243385</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>304297</v>
+        <v>302167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2143358004420201</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.192152919128715</v>
+        <v>0.1913224497306411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2392049450780095</v>
+        <v>0.2375309837376715</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>447662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>432523</v>
+        <v>432327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>462253</v>
+        <v>461032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8767445174473357</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8470945788261122</v>
+        <v>0.8467097712339907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9053200454143018</v>
+        <v>0.9029296727993408</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>507</v>
@@ -3465,19 +3465,19 @@
         <v>551795</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>524610</v>
+        <v>525502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>574661</v>
+        <v>575152</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7245953271770867</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6888961227737715</v>
+        <v>0.6900684086842871</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7546214421261878</v>
+        <v>0.7552667730086171</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>934</v>
@@ -3486,19 +3486,19 @@
         <v>999458</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>967821</v>
+        <v>969951</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1027677</v>
+        <v>1028733</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7856641995579798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7607950549219903</v>
+        <v>0.7624690162623285</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.807847080871285</v>
+        <v>0.8086775502693587</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>9879</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4949</v>
+        <v>4740</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18541</v>
+        <v>17725</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03701681639387042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01854464640262409</v>
+        <v>0.01775965477739672</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06947262849136128</v>
+        <v>0.06641686440769494</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>237</v>
@@ -3611,19 +3611,19 @@
         <v>254379</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>224584</v>
+        <v>229374</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>283525</v>
+        <v>285355</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2297249690874203</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2028175647605436</v>
+        <v>0.2071439290740846</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.256046424588988</v>
+        <v>0.2576992998237456</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>246</v>
@@ -3632,19 +3632,19 @@
         <v>264258</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>233086</v>
+        <v>233702</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>293302</v>
+        <v>294377</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.192299323563007</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1696158158537864</v>
+        <v>0.1700642948250538</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2134346240222265</v>
+        <v>0.2142173380382778</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>257003</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248341</v>
+        <v>249157</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261933</v>
+        <v>262142</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9629831836061296</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9305273715086387</v>
+        <v>0.9335831355923051</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.981455353597376</v>
+        <v>0.9822403452226033</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>805</v>
@@ -3682,19 +3682,19 @@
         <v>852939</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>823793</v>
+        <v>821963</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>882734</v>
+        <v>877944</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7702750309125797</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7439535754110117</v>
+        <v>0.7423007001762545</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7971824352394563</v>
+        <v>0.7928560709259155</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1061</v>
@@ -3703,19 +3703,19 @@
         <v>1109942</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1080898</v>
+        <v>1079823</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1141114</v>
+        <v>1140498</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8077006764369929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7865653759777738</v>
+        <v>0.7857826619617223</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8303841841462136</v>
+        <v>0.8299357051749485</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>376521</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>340734</v>
+        <v>339724</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>418397</v>
+        <v>415532</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1100621146429501</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09960110866429185</v>
+        <v>0.09930577322141827</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1223028737408568</v>
+        <v>0.1214654720353949</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>654</v>
@@ -3828,19 +3828,19 @@
         <v>704966</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>658526</v>
+        <v>653965</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>754229</v>
+        <v>751101</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1987960084560928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1857001203603887</v>
+        <v>0.1844138120881571</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2126877661014813</v>
+        <v>0.211805672417643</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>997</v>
@@ -3849,19 +3849,19 @@
         <v>1081488</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1018430</v>
+        <v>1021897</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1142656</v>
+        <v>1146142</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.155226273639538</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1461756087665368</v>
+        <v>0.1466731590722621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1640057716718702</v>
+        <v>0.1645060791726984</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3044468</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3002592</v>
+        <v>3005457</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3080255</v>
+        <v>3081265</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8899378853570499</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8776971262591432</v>
+        <v>0.8785345279646052</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9003988913357082</v>
+        <v>0.900694226778582</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2633</v>
@@ -3899,19 +3899,19 @@
         <v>2841214</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2791951</v>
+        <v>2795079</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2887654</v>
+        <v>2892215</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8012039915439072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7873122338985186</v>
+        <v>0.788194327582357</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8142998796396113</v>
+        <v>0.8155861879118426</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5494</v>
@@ -3920,19 +3920,19 @@
         <v>5885681</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5824513</v>
+        <v>5821027</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5948739</v>
+        <v>5945272</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.844773726360462</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8359942283281296</v>
+        <v>0.8354939208273018</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.853824391233463</v>
+        <v>0.853326840927738</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>33031</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22656</v>
+        <v>22148</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46167</v>
+        <v>47150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07697810357184696</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05280028890050163</v>
+        <v>0.05161527722478485</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1075929369001411</v>
+        <v>0.1098821995221672</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -4287,19 +4287,19 @@
         <v>38561</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26746</v>
+        <v>27070</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54250</v>
+        <v>54864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1111083192001362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07706539163329845</v>
+        <v>0.07799920883825054</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1563138660011674</v>
+        <v>0.1580842039514372</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -4308,19 +4308,19 @@
         <v>71591</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56000</v>
+        <v>55493</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92199</v>
+        <v>90756</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09223946522356513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07215071958922005</v>
+        <v>0.07149762083373362</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1187910721701767</v>
+        <v>0.1169308377463727</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>396061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382925</v>
+        <v>381942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406436</v>
+        <v>406944</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.923021896428153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.892407063099859</v>
+        <v>0.8901178004778322</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9471997110994985</v>
+        <v>0.948384722775214</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>300</v>
@@ -4358,19 +4358,19 @@
         <v>308494</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>292805</v>
+        <v>292191</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>320309</v>
+        <v>319985</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8888916807998638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8436861339988326</v>
+        <v>0.8419157960485629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9229346083667022</v>
+        <v>0.9220007911617496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>666</v>
@@ -4379,19 +4379,19 @@
         <v>704556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>683948</v>
+        <v>685391</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>720147</v>
+        <v>720654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9077605347764348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8812089278298236</v>
+        <v>0.8830691622536274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.92784928041078</v>
+        <v>0.9285023791662664</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>21002</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13666</v>
+        <v>13425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31550</v>
+        <v>31396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05567599337965343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03622854434673619</v>
+        <v>0.03558887330453685</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08363625073798139</v>
+        <v>0.08322929637193921</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -4504,19 +4504,19 @@
         <v>35706</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23744</v>
+        <v>24606</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50513</v>
+        <v>49244</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09591463661555694</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06378081807402131</v>
+        <v>0.06609702803001433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1356878076060209</v>
+        <v>0.1322804871076386</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -4525,19 +4525,19 @@
         <v>56709</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42410</v>
+        <v>42344</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73698</v>
+        <v>73564</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07566233890310069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05658402938527869</v>
+        <v>0.05649608302338567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09833016150788754</v>
+        <v>0.09815082551598578</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>356225</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345677</v>
+        <v>345831</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363561</v>
+        <v>363802</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9443240066203465</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9163637492620187</v>
+        <v>0.9167707036280607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9637714556532638</v>
+        <v>0.9644111266954631</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>322</v>
@@ -4575,19 +4575,19 @@
         <v>336567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321760</v>
+        <v>323029</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348529</v>
+        <v>347667</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9040853633844431</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8643121923939792</v>
+        <v>0.8677195128923614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9362191819259787</v>
+        <v>0.9339029719699857</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>654</v>
@@ -4596,19 +4596,19 @@
         <v>692791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>675802</v>
+        <v>675936</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>707090</v>
+        <v>707156</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9243376610968993</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9016698384921118</v>
+        <v>0.9018491744840138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9434159706147206</v>
+        <v>0.9435039169766143</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>46884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34306</v>
+        <v>35895</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60890</v>
+        <v>61024</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08983023503865449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06573205960252106</v>
+        <v>0.0687750896055927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1166675663222508</v>
+        <v>0.1169236122108607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -4721,19 +4721,19 @@
         <v>37120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26793</v>
+        <v>26759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49432</v>
+        <v>48490</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2234514656634903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.161282229639158</v>
+        <v>0.1610809649695751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2975648270654751</v>
+        <v>0.2918916922771557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -4742,19 +4742,19 @@
         <v>84004</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67156</v>
+        <v>67833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101618</v>
+        <v>102917</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1220923805622731</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09760486721616435</v>
+        <v>0.09858866768042081</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1476928982161324</v>
+        <v>0.1495814063371404</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>475030</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>461024</v>
+        <v>460890</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>487608</v>
+        <v>486019</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9101697649613455</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8833324336777493</v>
+        <v>0.8830763877891393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.934267940397479</v>
+        <v>0.9312249103944074</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -4792,19 +4792,19 @@
         <v>129003</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116691</v>
+        <v>117633</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139330</v>
+        <v>139364</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7765485343365097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7024351729345252</v>
+        <v>0.7081083077228444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8387177703608423</v>
+        <v>0.8389190350304249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>577</v>
@@ -4813,19 +4813,19 @@
         <v>604032</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>586418</v>
+        <v>585119</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>620880</v>
+        <v>620203</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8779076194377269</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8523071017838676</v>
+        <v>0.8504185936628594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9023951327838355</v>
+        <v>0.9014113323195792</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>124164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104018</v>
+        <v>103208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146338</v>
+        <v>145418</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1080026259700718</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09047879110460348</v>
+        <v>0.0897741046506212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1272907072412985</v>
+        <v>0.1264901847433307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -4938,19 +4938,19 @@
         <v>106702</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86610</v>
+        <v>87422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128225</v>
+        <v>129707</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1291983953295548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1048702526134437</v>
+        <v>0.1058531236820827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1552591491018121</v>
+        <v>0.1570539639630713</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -4959,19 +4959,19 @@
         <v>230866</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>201511</v>
+        <v>200851</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>261684</v>
+        <v>260800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1168636475484095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.102004405591722</v>
+        <v>0.1016701092101256</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1324639516212102</v>
+        <v>0.1320160763253834</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1025474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1003300</v>
+        <v>1004220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1045620</v>
+        <v>1046430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8919973740299283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8727092927587008</v>
+        <v>0.8735098152566692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.909521208895396</v>
+        <v>0.9102258953493786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>705</v>
@@ -5009,19 +5009,19 @@
         <v>719174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>697651</v>
+        <v>696169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>739266</v>
+        <v>738454</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8708016046704451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.844740850898188</v>
+        <v>0.8429460360369286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8951297473865563</v>
+        <v>0.8941468763179171</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1688</v>
@@ -5030,19 +5030,19 @@
         <v>1744648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1713830</v>
+        <v>1714714</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1774003</v>
+        <v>1774663</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8831363524515905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8675360483787897</v>
+        <v>0.8679839236746166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.897995594408278</v>
+        <v>0.8983298907898744</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>84117</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68413</v>
+        <v>68211</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102026</v>
+        <v>102182</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1355185038199793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1102180482477883</v>
+        <v>0.109892246599894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1643714870484392</v>
+        <v>0.1646216553499679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>154</v>
@@ -5155,19 +5155,19 @@
         <v>171134</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>147701</v>
+        <v>150019</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>195996</v>
+        <v>196972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2318120062501811</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2000701895922297</v>
+        <v>0.203210684737673</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2654900266195376</v>
+        <v>0.266811085500279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>239</v>
@@ -5176,19 +5176,19 @@
         <v>255251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>225710</v>
+        <v>228813</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>284883</v>
+        <v>287241</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1878295618759606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1660912171302408</v>
+        <v>0.1683751350659128</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2096347044655197</v>
+        <v>0.2113696509702088</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>536589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>518680</v>
+        <v>518524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>552293</v>
+        <v>552495</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8644814961800207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8356285129515608</v>
+        <v>0.8353783446500319</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8897819517522114</v>
+        <v>0.8901077534001055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>545</v>
@@ -5226,19 +5226,19 @@
         <v>567110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>542248</v>
+        <v>541272</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>590543</v>
+        <v>588225</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7681879937498189</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7345099733804624</v>
+        <v>0.7331889144997207</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7999298104077704</v>
+        <v>0.796789315262327</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1057</v>
@@ -5247,19 +5247,19 @@
         <v>1103699</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1074067</v>
+        <v>1071709</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1133240</v>
+        <v>1130137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8121704381240394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7903652955344803</v>
+        <v>0.7886303490297917</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8339087828697594</v>
+        <v>0.8316248649340873</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>4654</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11334</v>
+        <v>11679</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01620637525503846</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003768215340857439</v>
+        <v>0.003791949520680773</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03947074132126553</v>
+        <v>0.04067429556267726</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>196</v>
@@ -5372,19 +5372,19 @@
         <v>235020</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>208898</v>
+        <v>204384</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>263746</v>
+        <v>263806</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2172040241371661</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1930616351686762</v>
+        <v>0.1888903318607556</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2437520934773094</v>
+        <v>0.2438080646901825</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>200</v>
@@ -5393,19 +5393,19 @@
         <v>239674</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>208463</v>
+        <v>209013</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>269653</v>
+        <v>271497</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.175050383946822</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1522548129096888</v>
+        <v>0.1526566013168721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1969466478799745</v>
+        <v>0.1982927800873832</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>282491</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275811</v>
+        <v>275466</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286063</v>
+        <v>286056</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9837936247449616</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9605292586787346</v>
+        <v>0.9593257044373228</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9962317846591425</v>
+        <v>0.9962080504793193</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>796</v>
@@ -5443,19 +5443,19 @@
         <v>847005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>818279</v>
+        <v>818219</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>873127</v>
+        <v>877641</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7827959758628339</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7562479065226907</v>
+        <v>0.7561919353098177</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8069383648313239</v>
+        <v>0.8111096681392443</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1064</v>
@@ -5464,19 +5464,19 @@
         <v>1129496</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1099517</v>
+        <v>1097673</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1160707</v>
+        <v>1160157</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8249496160531781</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8030533521200255</v>
+        <v>0.8017072199126167</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8477451870903111</v>
+        <v>0.8473433986831278</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>313851</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>282282</v>
+        <v>280880</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>350034</v>
+        <v>351341</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09269853650073888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08337424113450594</v>
+        <v>0.08296007072200814</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1033852345576169</v>
+        <v>0.1037714594141939</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>537</v>
@@ -5589,19 +5589,19 @@
         <v>624243</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>575784</v>
+        <v>575152</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>676045</v>
+        <v>671867</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1767595686810615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1630380337909846</v>
+        <v>0.1628590855596492</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.191427577269905</v>
+        <v>0.1902445962447042</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>844</v>
@@ -5610,19 +5610,19 @@
         <v>938095</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>879591</v>
+        <v>879070</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>999295</v>
+        <v>996177</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1356153999893734</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1271578767153859</v>
+        <v>0.1270825216038066</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1444627692288524</v>
+        <v>0.1440119810844101</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3071871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3035688</v>
+        <v>3034381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3103440</v>
+        <v>3104842</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9073014634992611</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8966147654423829</v>
+        <v>0.896228540585806</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.916625758865494</v>
+        <v>0.9170399292779918</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2789</v>
@@ -5660,19 +5660,19 @@
         <v>2907353</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2855551</v>
+        <v>2859729</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2955812</v>
+        <v>2956444</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8232404313189385</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.808572422730095</v>
+        <v>0.809755403755296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8369619662090154</v>
+        <v>0.8371409144403509</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5706</v>
@@ -5681,19 +5681,19 @@
         <v>5979223</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5918023</v>
+        <v>5921141</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6037727</v>
+        <v>6038248</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8643846000106266</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8555372307711469</v>
+        <v>0.85598801891559</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.872842123284614</v>
+        <v>0.8729174783961935</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>42369</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31879</v>
+        <v>31541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56598</v>
+        <v>56888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07694852122800619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05789682897336867</v>
+        <v>0.05728326519534341</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1027895140224924</v>
+        <v>0.1033169373538689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -6048,19 +6048,19 @@
         <v>60868</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49137</v>
+        <v>47394</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75325</v>
+        <v>73146</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1246237384098699</v>
+        <v>0.1246237384098698</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1006055346703827</v>
+        <v>0.09703685857724559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1542241802966197</v>
+        <v>0.1497637295604261</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>136</v>
@@ -6069,19 +6069,19 @@
         <v>103237</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85422</v>
+        <v>86518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119922</v>
+        <v>120135</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0993589560171933</v>
+        <v>0.09935895601719329</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08221343740334645</v>
+        <v>0.08326776975284114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1154171705501656</v>
+        <v>0.1156224436676673</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>508249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>494020</v>
+        <v>493730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>518739</v>
+        <v>519077</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9230514787719939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8972104859775077</v>
+        <v>0.8966830626461312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9421031710266317</v>
+        <v>0.9427167348046568</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>599</v>
@@ -6119,19 +6119,19 @@
         <v>427543</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>413086</v>
+        <v>415265</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>439274</v>
+        <v>441017</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8753762615901303</v>
+        <v>0.8753762615901302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8457758197033803</v>
+        <v>0.8502362704395737</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8993944653296171</v>
+        <v>0.9029631414227544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1104</v>
@@ -6140,19 +6140,19 @@
         <v>935792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>919107</v>
+        <v>918894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>953607</v>
+        <v>952511</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9006410439828068</v>
+        <v>0.9006410439828066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8845828294498345</v>
+        <v>0.8843775563323331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9177865625966537</v>
+        <v>0.916732230247159</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>43000</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33137</v>
+        <v>31184</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55878</v>
+        <v>55935</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08898823431112812</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06857591065625493</v>
+        <v>0.06453459970796775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1156382819150956</v>
+        <v>0.1157561306469358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -6265,19 +6265,19 @@
         <v>58054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47484</v>
+        <v>48301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71631</v>
+        <v>72305</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1371977647862761</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1122174289681564</v>
+        <v>0.114147012927589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1692831403203806</v>
+        <v>0.1708771746984271</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -6286,19 +6286,19 @@
         <v>101054</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85132</v>
+        <v>84336</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119853</v>
+        <v>119001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1114954398737104</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09392789121327384</v>
+        <v>0.09304960310142377</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1322367759718049</v>
+        <v>0.1312965719672655</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>440212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>427334</v>
+        <v>427277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450075</v>
+        <v>452028</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9110117656888718</v>
+        <v>0.9110117656888719</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8843617180849043</v>
+        <v>0.8842438693530641</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9314240893437452</v>
+        <v>0.9354654002920322</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>502</v>
@@ -6336,19 +6336,19 @@
         <v>365089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351512</v>
+        <v>350838</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>375659</v>
+        <v>374842</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8628022352137238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8307168596796195</v>
+        <v>0.8291228253015732</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8877825710318435</v>
+        <v>0.8858529870724116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>937</v>
@@ -6357,19 +6357,19 @@
         <v>805301</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>786502</v>
+        <v>787354</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>821223</v>
+        <v>822019</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8885045601262898</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8677632240281951</v>
+        <v>0.8687034280327346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9060721087867264</v>
+        <v>0.9069503968985763</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>67214</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52399</v>
+        <v>52610</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82791</v>
+        <v>83921</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1426683170672735</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1112228552245565</v>
+        <v>0.1116701278925844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1757326976345689</v>
+        <v>0.1781320836559825</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -6482,19 +6482,19 @@
         <v>42563</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33140</v>
+        <v>32961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54186</v>
+        <v>52769</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2270059006855018</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1767497916315233</v>
+        <v>0.1757928140020923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2889968200592512</v>
+        <v>0.2814393127485166</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>137</v>
@@ -6503,19 +6503,19 @@
         <v>109777</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93425</v>
+        <v>91612</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127594</v>
+        <v>127963</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.166677842292881</v>
+        <v>0.1666778422928811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.141850788903348</v>
+        <v>0.1390975574991981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1937309342068482</v>
+        <v>0.1942912582559986</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>403905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>388328</v>
+        <v>387198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>418720</v>
+        <v>418509</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8573316829327267</v>
+        <v>0.8573316829327264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.824267302365431</v>
+        <v>0.8218679163440173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8887771447754435</v>
+        <v>0.8883298721074158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -6553,19 +6553,19 @@
         <v>144934</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>133311</v>
+        <v>134728</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154357</v>
+        <v>154536</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.772994099314498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.711003179940749</v>
+        <v>0.7185606872514835</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8232502083684767</v>
+        <v>0.8242071859979077</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>639</v>
@@ -6574,19 +6574,19 @@
         <v>548839</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>531022</v>
+        <v>530653</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>565191</v>
+        <v>567004</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8333221577071188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8062690657931521</v>
+        <v>0.8057087417440015</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.858149211096652</v>
+        <v>0.8609024425008019</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>178099</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154752</v>
+        <v>153222</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206344</v>
+        <v>203770</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1575743239639396</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1369174973066621</v>
+        <v>0.135563816050286</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1825638456463189</v>
+        <v>0.1802865925042615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -6699,19 +6699,19 @@
         <v>139983</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122908</v>
+        <v>122078</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>159092</v>
+        <v>157770</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1626514968165388</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1428112250827745</v>
+        <v>0.1418472766644494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1848550168373579</v>
+        <v>0.1833184239625507</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>414</v>
@@ -6720,19 +6720,19 @@
         <v>318082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>290474</v>
+        <v>289438</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>353074</v>
+        <v>348916</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1597691152078485</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1459018032273353</v>
+        <v>0.1453815651717635</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1773450088789275</v>
+        <v>0.1752565247586904</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>952155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>923910</v>
+        <v>926484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>975502</v>
+        <v>977032</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8424256760360603</v>
+        <v>0.8424256760360604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8174361543536809</v>
+        <v>0.8197134074957386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8630825026933379</v>
+        <v>0.8644361839497141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1011</v>
@@ -6770,19 +6770,19 @@
         <v>720649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>701540</v>
+        <v>702862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>737724</v>
+        <v>738554</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.837348503183461</v>
+        <v>0.8373485031834611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8151449831626425</v>
+        <v>0.8166815760374493</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8571887749172257</v>
+        <v>0.8581527233355504</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1931</v>
@@ -6791,19 +6791,19 @@
         <v>1672804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1637812</v>
+        <v>1641970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1700412</v>
+        <v>1701448</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8402308847921516</v>
+        <v>0.8402308847921517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.822654991121073</v>
+        <v>0.8247434752413096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8540981967726649</v>
+        <v>0.8546184348282365</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>92667</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76246</v>
+        <v>75027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110914</v>
+        <v>110118</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1634733981858114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1345054902056001</v>
+        <v>0.1323557853383804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1956645336338728</v>
+        <v>0.194260171840857</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>371</v>
@@ -6916,19 +6916,19 @@
         <v>214245</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>194915</v>
+        <v>194494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>236068</v>
+        <v>234323</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2582071135436028</v>
+        <v>0.2582071135436029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2349111161544076</v>
+        <v>0.2344033115360413</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2845081579848686</v>
+        <v>0.2824048568028917</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>476</v>
@@ -6937,19 +6937,19 @@
         <v>306911</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>279811</v>
+        <v>280127</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>334412</v>
+        <v>336897</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2197560807909309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2003519043558704</v>
+        <v>0.2005781419368937</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2394474529537346</v>
+        <v>0.2412263562844436</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>474193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>455946</v>
+        <v>456742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>490614</v>
+        <v>491833</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8365266018141886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8043354663661271</v>
+        <v>0.805739828159143</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8654945097943998</v>
+        <v>0.8676442146616195</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>917</v>
@@ -6987,19 +6987,19 @@
         <v>615495</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>593672</v>
+        <v>595417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>634825</v>
+        <v>635246</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7417928864563972</v>
+        <v>0.7417928864563971</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7154918420151314</v>
+        <v>0.7175951431971083</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7650888838455925</v>
+        <v>0.7655966884639587</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1358</v>
@@ -7008,19 +7008,19 @@
         <v>1089689</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1062188</v>
+        <v>1059703</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1116789</v>
+        <v>1116473</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.780243919209069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7605525470462654</v>
+        <v>0.7587736437155562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7996480956441296</v>
+        <v>0.7994218580631062</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>5940</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2381</v>
+        <v>2617</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11553</v>
+        <v>12272</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02503799059768688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01003550161984455</v>
+        <v>0.01103295455976071</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04870029396164712</v>
+        <v>0.05173130528046237</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>346</v>
@@ -7133,19 +7133,19 @@
         <v>203856</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>181738</v>
+        <v>182913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>225587</v>
+        <v>225161</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2414546392880863</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2152580277336691</v>
+        <v>0.2166492961423206</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2671945193439692</v>
+        <v>0.2666893089213834</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>354</v>
@@ -7154,19 +7154,19 @@
         <v>209795</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>188133</v>
+        <v>187342</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>232882</v>
+        <v>231931</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1939838861687853</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1739537355134144</v>
+        <v>0.1732225837177183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2153310259554222</v>
+        <v>0.2144508628062818</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>231288</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225675</v>
+        <v>224956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234847</v>
+        <v>234611</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9749620094023133</v>
+        <v>0.9749620094023131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9512997060383528</v>
+        <v>0.9482686947195376</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9899644983801554</v>
+        <v>0.9889670454402393</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>813</v>
@@ -7204,19 +7204,19 @@
         <v>640425</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>618694</v>
+        <v>619120</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>662543</v>
+        <v>661368</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7585453607119136</v>
+        <v>0.7585453607119138</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7328054806560307</v>
+        <v>0.7333106910786166</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7847419722663309</v>
+        <v>0.7833507038576792</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>917</v>
@@ -7225,19 +7225,19 @@
         <v>871714</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>848627</v>
+        <v>849578</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>893376</v>
+        <v>894167</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8060161138312149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7846689740445777</v>
+        <v>0.7855491371937183</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8260462644865856</v>
+        <v>0.8267774162822817</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>429288</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>392388</v>
+        <v>392607</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>470606</v>
+        <v>473015</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1248188717802587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1140898205662718</v>
+        <v>0.1141533838794132</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1368323868129637</v>
+        <v>0.1375326616354408</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1175</v>
@@ -7350,19 +7350,19 @@
         <v>719568</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>679020</v>
+        <v>677703</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>757546</v>
+        <v>759621</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1980261095543812</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1868672774459632</v>
+        <v>0.1865046378638125</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2084777488420074</v>
+        <v>0.2090486736786276</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1651</v>
@@ -7371,19 +7371,19 @@
         <v>1148857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1092346</v>
+        <v>1094979</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1206089</v>
+        <v>1202868</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1624286084689197</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.15443902479059</v>
+        <v>0.1548112094818909</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1705203346093528</v>
+        <v>0.170064827414364</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3010002</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2968684</v>
+        <v>2966275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3046902</v>
+        <v>3046683</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8751811282197411</v>
+        <v>0.8751811282197413</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8631676131870364</v>
+        <v>0.862467338364559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8859101794337282</v>
+        <v>0.8858466161205867</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4066</v>
@@ -7421,19 +7421,19 @@
         <v>2914136</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2876158</v>
+        <v>2874083</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2954684</v>
+        <v>2956001</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8019738904456186</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7915222511579926</v>
+        <v>0.7909513263213725</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8131327225540368</v>
+        <v>0.8134953621361874</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6886</v>
@@ -7442,19 +7442,19 @@
         <v>5924137</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5866905</v>
+        <v>5870126</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5980648</v>
+        <v>5978015</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8375713915310802</v>
+        <v>0.8375713915310804</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8294796653906469</v>
+        <v>0.8299351725856359</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8455609752094096</v>
+        <v>0.8451887905181092</v>
       </c>
     </row>
     <row r="24">
